--- a/SOP/Excel/exercicios-graficos.xlsx
+++ b/SOP/Excel/exercicios-graficos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESENVOLVIMENTO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESENVOLVIMENTO\Desktop\logic\SOP\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estatísticas" sheetId="1" r:id="rId1"/>
@@ -450,15 +450,15 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Estatísticas!$A$4</c:f>
+              <c:f>Estatísticas!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ano</c:v>
+                  <c:v>Acidentes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -466,7 +466,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -483,114 +483,6 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Estatísticas!$B$5:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>244</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Estatísticas!$A$5:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -696,19 +588,127 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Estatísticas!$B$5:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Estatísticas!$B$4</c:f>
+              <c:f>Estatísticas!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Acidentes</c:v>
+                  <c:v>Media</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -716,7 +716,9 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -733,216 +735,792 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Estatísticas!$B$5:$B$37</c:f>
+              <c:f>Estatísticas!$A$5:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>226</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>186</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>211</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>185</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>255</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>228</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>257</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>158</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>121</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>272</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>169</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>296</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>192</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>254</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>191</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>177</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>223</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>242</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>277</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>254</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>275</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>233</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>244</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Estatísticas!$B$5:$B$37</c:f>
+              <c:f>Estatísticas!$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>220.24242424242425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estatísticas!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mediana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Estatísticas!$A$5:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>226</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>186</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221</c:v>
+                  <c:v>1993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>211</c:v>
+                  <c:v>1996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>185</c:v>
+                  <c:v>1998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>255</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>228</c:v>
+                  <c:v>2002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>257</c:v>
+                  <c:v>2003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>158</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>121</c:v>
+                  <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>272</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>169</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>296</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>192</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>254</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>191</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>177</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>223</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>242</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>277</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>254</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>275</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>233</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>244</c:v>
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Estatísticas!$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estatísticas!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Estatísticas!$A$5:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Estatísticas!$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estatísticas!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Estatísticas!$A$5:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Estatísticas!$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estatísticas!$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Estatísticas!$A$5:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Estatísticas!$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estatísticas!$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Desvio Padrão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Estatísticas!$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60.369192424111425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,11 +1536,285 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="94934984"/>
-        <c:axId val="94931456"/>
+        <c:axId val="366555632"/>
+        <c:axId val="366557592"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Estatísticas!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Ano</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Estatísticas!$A$5:$A$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1991</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1992</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1993</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1995</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Estatísticas!$A$5:$A$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>1990</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1991</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1992</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1993</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1995</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94934984"/>
+        <c:axId val="366555632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1856,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94931456"/>
+        <c:crossAx val="366557592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1012,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94931456"/>
+        <c:axId val="366557592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1914,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94934984"/>
+        <c:crossAx val="366555632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1162,7 +2014,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1256,7 +2107,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1310,25 +2160,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,7 +2252,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1490,11 +2339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="415674920"/>
-        <c:axId val="415675312"/>
+        <c:axId val="366554456"/>
+        <c:axId val="366556024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="415674920"/>
+        <c:axId val="366554456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +2386,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415675312"/>
+        <c:crossAx val="366556024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415675312"/>
+        <c:axId val="366556024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +2430,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="415674920"/>
+        <c:crossAx val="366554456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,11 +2516,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1680,7 +2529,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="pt-BR"/>
               <a:t>Motoboys</a:t>
             </a:r>
           </a:p>
@@ -1700,11 +2549,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1718,206 +2567,621 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7692038495188095E-2"/>
+          <c:y val="0.18137967058729151"/>
+          <c:w val="0.71686329833770779"/>
+          <c:h val="0.72909492182502778"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entregas!$I$4:$I$10</c:f>
+              <c:f>Entregas!$B$4</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>Jair</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qua</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qui</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sex</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sáb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suzana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qua</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qui</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sex</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sáb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mariana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qua</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qui</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sex</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sáb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marcos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qua</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qui</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sex</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sáb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paulão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qua</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qui</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sex</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sáb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$C$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Entregas!$B$4:$B$10</c:f>
+              <c:f>Entregas!$C$3:$H$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Jair</c:v>
+                  <c:v>Seg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Suzana</c:v>
+                  <c:v>Ter</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mariana</c:v>
+                  <c:v>Qua</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marcos</c:v>
+                  <c:v>Qui</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Paulão</c:v>
+                  <c:v>Sex</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Miguel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Osvaldo</c:v>
+                  <c:v>Sáb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entregas!$I$4:$I$10</c:f>
+              <c:f>Entregas!$C$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Osvaldo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Seg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Qua</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Qui</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sex</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sáb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="371577536"/>
-        <c:axId val="371578320"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="365704520"/>
+        <c:axId val="368380648"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="371577536"/>
+        <c:axId val="365704520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1929,11 +3193,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1944,7 +3208,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371578320"/>
+        <c:crossAx val="368380648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1952,46 +3216,84 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371578320"/>
+        <c:axId val="368380648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371577536"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365704520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1999,36 +3301,40 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2068,31 +3374,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Entregas da Semana</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2107,11 +3388,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2125,31 +3406,324 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28189610673665794"/>
+          <c:y val="0.17634259259259263"/>
+          <c:w val="0.40287467191601051"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Motoboy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2165,9 +3739,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2177,193 +3754,1365 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Entregas!$C$3:$H$3</c:f>
+              <c:f>Entregas!$B$4:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Seg</c:v>
+                  <c:v>Jair</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ter</c:v>
+                  <c:v>Suzana</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Qua</c:v>
+                  <c:v>Mariana</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Qui</c:v>
+                  <c:v>Marcos</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Sex</c:v>
+                  <c:v>Paulão</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sáb</c:v>
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Osvaldo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entregas!$C$11:$H$11</c:f>
+              <c:f>Entregas!$I$4:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>69</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Motoboy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$B$4:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jair</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzana</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>Mariana</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103</c:v>
+                  <c:v>Marcos</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116</c:v>
+                  <c:v>Paulão</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63</c:v>
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Osvaldo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Motoboy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$B$4:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jair</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mariana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Marcos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Paulão</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Osvaldo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Entregas!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Motoboy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Entregas!$B$4:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jair</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Suzana</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mariana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Marcos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Paulão</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miguel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Osvaldo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Entregas!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="418107248"/>
-        <c:axId val="418108032"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="418107248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="418108032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="418108032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="418107248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2372,35 +5121,51 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2454,11 +5219,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2477,8 +5242,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28189610673665794"/>
-          <c:y val="0.17634259259259263"/>
+          <c:x val="0.29578499562554683"/>
+          <c:y val="0.16650517643627877"/>
           <c:w val="0.40287467191601051"/>
           <c:h val="0.6714577865266842"/>
         </c:manualLayout>
@@ -2486,15 +5251,15 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Entregas!$B$3</c:f>
+              <c:f>Entregas!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Motoboy</c:v>
+                  <c:v>Entregas da Semana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2503,163 +5268,255 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="110000"/>
+                      <a:satMod val="105000"/>
+                      <a:tint val="67000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="103000"/>
+                      <a:tint val="73000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="105000"/>
+                      <a:satMod val="109000"/>
+                      <a:tint val="81000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2668,9 +5525,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2692,9 +5552,9 @@
               <c:spPr>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
                 </a:ln>
@@ -2709,899 +5569,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Entregas!$B$4:$B$10</c:f>
+              <c:f>Entregas!$C$3:$H$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Jair</c:v>
+                  <c:v>Seg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Suzana</c:v>
+                  <c:v>Ter</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mariana</c:v>
+                  <c:v>Qua</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Marcos</c:v>
+                  <c:v>Qui</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Paulão</c:v>
+                  <c:v>Sex</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Miguel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Osvaldo</c:v>
+                  <c:v>Sáb</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Entregas!$I$4:$I$10</c:f>
+              <c:f>Entregas!$C$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Entregas!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Motoboy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Entregas!$B$4:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jair</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Suzana</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mariana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Marcos</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Paulão</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miguel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Osvaldo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Entregas!$I$4:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Entregas!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Motoboy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Entregas!$B$4:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jair</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Suzana</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mariana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Marcos</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Paulão</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miguel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Osvaldo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Entregas!$I$4:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Entregas!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Motoboy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Entregas!$B$4:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jair</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Suzana</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mariana</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Marcos</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Paulão</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miguel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Osvaldo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Entregas!$I$4:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,16 +5642,11 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3650,9 +5659,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3669,455 +5678,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29300721784776901"/>
-          <c:y val="0.13872739865850103"/>
-          <c:w val="0.40287467191601051"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Entregas!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Entregas da Semana</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Entregas!$C$3:$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Seg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ter</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Qua</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Qui</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sex</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sáb</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Entregas!$C$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -4143,13 +5711,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -4342,46 +5907,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -5449,18 +6974,18 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5468,24 +6993,24 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5493,30 +7018,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5529,50 +7038,57 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5580,24 +7096,21 @@
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5614,18 +7127,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -5635,13 +7148,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -5666,16 +7183,16 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5692,8 +7209,8 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -5714,14 +7231,15 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5740,7 +7258,6 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -5760,26 +7277,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -5792,28 +7296,118 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5831,102 +7425,6 @@
         <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
@@ -5934,11 +7432,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5950,7 +7448,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5963,8 +7461,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5996,16 +7494,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -6019,43 +7512,43 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6063,30 +7556,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6099,50 +7576,57 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6151,72 +7635,63 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:spPr/>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -6235,17 +7710,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6262,15 +7737,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6286,7 +7761,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -6305,53 +7780,40 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -6362,24 +7824,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6393,9 +7843,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -6412,9 +7862,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6425,22 +7875,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6448,7 +7890,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6461,17 +7903,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6489,12 +7931,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6503,24 +7945,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6532,9 +7974,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6552,9 +7994,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6565,16 +8007,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6589,43 +8026,43 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="254">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6633,30 +8070,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6669,155 +8090,122 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:spPr/>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
@@ -6836,17 +8224,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6863,15 +8251,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6887,7 +8275,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -6906,53 +8294,40 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
@@ -6963,24 +8338,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6994,9 +8357,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -7013,9 +8376,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7026,22 +8389,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7049,7 +8404,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7062,17 +8417,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7090,12 +8445,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -7104,24 +8459,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="2"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7133,9 +8488,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7153,9 +8508,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7166,617 +8521,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7794,16 +8543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7867,13 +8616,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7887,36 +8636,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7946,7 +8665,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7955,15 +8674,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7976,7 +8695,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8284,8 +9003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8328,7 +9047,7 @@
       </c>
       <c r="B5">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>226</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8337,7 +9056,7 @@
       </c>
       <c r="B6">
         <f t="shared" ref="B6:B37" ca="1" si="0">RANDBETWEEN(100,300)</f>
-        <v>186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8346,7 +9065,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8355,7 +9074,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8364,7 +9083,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8373,7 +9092,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8382,7 +9101,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8391,7 +9110,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8400,7 +9119,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8409,7 +9128,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8418,7 +9137,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8427,7 +9146,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -8436,7 +9155,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -8445,7 +9164,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -8454,7 +9173,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,7 +9182,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8472,7 +9191,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8481,7 +9200,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8490,7 +9209,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>296</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8499,7 +9218,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8508,7 +9227,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8517,7 +9236,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8526,7 +9245,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8535,7 +9254,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8544,7 +9263,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8553,7 +9272,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8562,7 +9281,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>8</v>
@@ -8576,7 +9295,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8585,7 +9304,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -8603,19 +9322,19 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="D34" s="2">
         <f ca="1">AVERAGE(B5:B37)</f>
-        <v>202.45454545454547</v>
+        <v>220.24242424242425</v>
       </c>
       <c r="E34" s="2">
         <f ca="1">MEDIAN(B5:B37)</f>
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F34" s="2">
         <f ca="1">_xlfn.MODE.SNGL(B5:B37)</f>
-        <v>108</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8624,7 +9343,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -8642,19 +9361,19 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="D36" s="2">
         <f ca="1">MAX(B5:B37)</f>
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E36" s="2">
         <f ca="1">MIN(B5:B37)</f>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F36" s="2">
         <f ca="1">_xlfn.STDEV.S(B5:B37)</f>
-        <v>56.296697787864822</v>
+        <v>60.369192424111425</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8663,19 +9382,19 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D37" s="3">
         <f ca="1">D36/D34</f>
-        <v>1.4620565783565334</v>
+        <v>1.3394331315354979</v>
       </c>
       <c r="E37" s="3">
         <f ca="1">E36/D34</f>
-        <v>0.51863493488998647</v>
+        <v>0.46766648321408916</v>
       </c>
       <c r="F37" s="3">
         <f ca="1">F36/D34</f>
-        <v>0.27807080182600497</v>
+        <v>0.27410337781998856</v>
       </c>
     </row>
   </sheetData>
@@ -8725,7 +9444,7 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(10,50)</f>
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -8734,7 +9453,7 @@
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C11" ca="1" si="0">RANDBETWEEN(10,50)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -8743,7 +9462,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -8752,7 +9471,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -8761,7 +9480,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -8770,7 +9489,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -8779,7 +9498,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -8796,8 +9515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8845,11 +9564,11 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(1,25)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:H4" ca="1" si="0">RANDBETWEEN(1,25)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
@@ -8857,19 +9576,19 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <f ca="1">SUM(C4:H4)</f>
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -8878,31 +9597,31 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:H10" ca="1" si="1">RANDBETWEEN(1,25)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I10" ca="1" si="2">SUM(C5:H5)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -8911,31 +9630,31 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -8944,31 +9663,31 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -8977,31 +9696,31 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -9010,23 +9729,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
@@ -9034,7 +9753,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -9043,31 +9762,31 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -9076,27 +9795,27 @@
       </c>
       <c r="C11">
         <f ca="1">SUM(C4:C10)</f>
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:H11" ca="1" si="3">SUM(D4:D10)</f>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
